--- a/xlsx/决策_intext.xlsx
+++ b/xlsx/决策_intext.xlsx
@@ -20,760 +20,760 @@
     <t>决策</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E7%AD%96</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E5%BF%83%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>神经心理学</t>
+  </si>
+  <si>
+    <t>政策_政策_计划_决策</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_regions_in_the_human_brain</t>
+  </si>
+  <si>
+    <t>en-List of regions in the human brain</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Clinical_neuropsychology</t>
+  </si>
+  <si>
+    <t>en-Clinical neuropsychology</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Cognitive_neuropsychology</t>
+  </si>
+  <si>
+    <t>en-Cognitive neuropsychology</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E7%A5%9E%E7%B6%93%E7%A7%91%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>认知神经科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%99%BA%E7%97%87</t>
+  </si>
+  <si>
+    <t>失智症</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E8%85%A6</t>
+  </si>
+  <si>
+    <t>人脑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E8%A7%A3%E5%89%96%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>神经解剖学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E7%94%9F%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>神经生理学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Neuropsychological_assessment</t>
+  </si>
+  <si>
+    <t>en-Neuropsychological assessment</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Neuropsychological_rehabilitation</t>
+  </si>
+  <si>
+    <t>en-Neuropsychological rehabilitation</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Traumatic_brain_injury</t>
+  </si>
+  <si>
+    <t>en-Traumatic brain injury</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%84%91</t>
+  </si>
+  <si>
+    <t>脑</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Arousal</t>
+  </si>
+  <si>
+    <t>en-Arousal</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A8%E6%84%8F</t>
+  </si>
+  <si>
+    <t>注意</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AF%86</t>
+  </si>
+  <si>
+    <t>意识</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E6%8E%A7%E5%8A%9F%E8%83%BD</t>
+  </si>
+  <si>
+    <t>管控功能</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E8%AA%9E%E8%A8%80</t>
+  </si>
+  <si>
+    <t>自然语言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E7%BF%92</t>
+  </si>
+  <si>
+    <t>学习</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A8%98%E6%86%B6</t>
+  </si>
+  <si>
+    <t>记忆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%90%E5%8A%A8%E5%8D%8F%E8%B0%83</t>
+  </si>
+  <si>
+    <t>运动协调</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%A6%BA</t>
+  </si>
+  <si>
+    <t>知觉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E5%8A%83</t>
+  </si>
+  <si>
+    <t>企划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%B1%BA%E5%95%8F%E9%A1%8C</t>
+  </si>
+  <si>
+    <t>解决问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%9D%E6%83%B3</t>
+  </si>
+  <si>
+    <t>思想</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Arthur_L._Benton</t>
+  </si>
+  <si>
+    <t>en-Arthur L. Benton</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%BB%B4%C2%B7%E7%8E%BB%E5%A7%86</t>
+  </si>
+  <si>
+    <t>戴维·玻姆</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Antonio_Damasio</t>
+  </si>
+  <si>
+    <t>en-Antonio Damasio</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%B0%BC%E6%96%AF%C2%B7%E8%93%8B%E5%90%89</t>
+  </si>
+  <si>
+    <t>费尼斯·盖吉</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Norman_Geschwind</t>
+  </si>
+  <si>
+    <t>en-Norman Geschwind</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Elkhonon_Goldberg</t>
+  </si>
+  <si>
+    <t>en-Elkhonon Goldberg</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Patricia_Goldman_Rakic</t>
+  </si>
+  <si>
+    <t>en-Patricia Goldman Rakic</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Pasko_Rakic</t>
+  </si>
+  <si>
+    <t>en-Pasko Rakic</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%BA%B3%E5%BE%B7%C2%B7%E8%B5%AB%E5%B8%83</t>
+  </si>
+  <si>
+    <t>唐纳德·赫布</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Kenneth_Heilman</t>
+  </si>
+  <si>
+    <t>en-Kenneth Heilman</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Edith_Kaplan</t>
+  </si>
+  <si>
+    <t>en-Edith Kaplan</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Muriel_Lezak</t>
+  </si>
+  <si>
+    <t>en-Muriel Lezak</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Benjamin_Libet</t>
+  </si>
+  <si>
+    <t>en-Benjamin Libet</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Rodolfo_Llin%C3%A1s</t>
+  </si>
+  <si>
+    <t>en-Rodolfo Llinás</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%C2%B7%E9%B2%81%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>亚历山大·鲁利亚</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Brenda_Milner</t>
+  </si>
+  <si>
+    <t>en-Brenda Milner</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Karl_H._Pribram</t>
+  </si>
+  <si>
+    <t>en-Karl H. Pribram</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%88%A9%E4%BD%9B%C2%B7%E8%96%A9%E5%85%8B%E6%96%AF</t>
+  </si>
+  <si>
+    <t>奥利佛·萨克斯</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Mark_Rosenzweig</t>
+  </si>
+  <si>
+    <t>en-Mark Rosenzweig</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%9D%B0%C2%B7%E6%96%AF%E4%BD%A9%E9%87%8C</t>
+  </si>
+  <si>
+    <t>罗杰·斯佩里</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Hans-Lukas_Teuber</t>
+  </si>
+  <si>
+    <t>en-Hans-Lukas Teuber</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E8%8E%AB%E8%90%8A%E6%A3%AE</t>
+  </si>
+  <si>
+    <t>亨利·莫莱森</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/K.C._(patient)</t>
+  </si>
+  <si>
+    <t>en-K.C. (patient)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Neuropsychological_test</t>
+  </si>
+  <si>
+    <t>en-Neuropsychological test</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Benton_Visual_Retention_Test</t>
+  </si>
+  <si>
+    <t>en-Benton Visual Retention Test</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Continuous_Performance_Task</t>
+  </si>
+  <si>
+    <t>en-Continuous Performance Task</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Halstead-Reitan_Neuropsychological_Battery</t>
+  </si>
+  <si>
+    <t>en-Halstead-Reitan Neuropsychological Battery</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Hayling_and_Brixton_tests</t>
+  </si>
+  <si>
+    <t>en-Hayling and Brixton tests</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Lexical_decision_task</t>
+  </si>
+  <si>
+    <t>en-Lexical decision task</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Luria-Nebraska_Neuropsychological_battery</t>
+  </si>
+  <si>
+    <t>en-Luria-Nebraska Neuropsychological battery</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B0%A1%E7%9F%AD%E6%99%BA%E8%83%BD%E6%B8%AC%E9%A9%97</t>
+  </si>
+  <si>
+    <t>简短智能测验</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Rey-Osterrieth_Complex_Figure</t>
+  </si>
+  <si>
+    <t>en-Rey-Osterrieth Complex Figure</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%89%B9%E9%AD%AF%E6%99%AE%E6%95%88%E6%87%89</t>
+  </si>
+  <si>
+    <t>斯特鲁普效应</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AD%8F%E6%B0%8F%E6%99%BA%E5%8A%9B%E6%B8%AC%E9%A9%97</t>
+  </si>
+  <si>
+    <t>魏氏智力测验</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Wechsler_Memory_Scale</t>
+  </si>
+  <si>
+    <t>en-Wechsler Memory Scale</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Wisconsin_Card_Sorting_Task</t>
+  </si>
+  <si>
+    <t>en-Wisconsin Card Sorting Task</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>心理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%A6%E5%A4%A7%E7%BA%B2</t>
+  </si>
+  <si>
+    <t>心理学大纲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>心理学史</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Subfields_of_psychology</t>
+  </si>
+  <si>
+    <t>en-Subfields of psychology</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Basic_science_(psychology)</t>
+  </si>
+  <si>
+    <t>en-Basic science (psychology)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%95%B0%E5%B8%B8%E5%BF%83%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>异常心理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E4%B8%BA%E9%81%97%E4%BC%A0%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>行为遗传学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%BF%83%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>生物心理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E5%BF%83%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>认知心理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BC%83%E5%BF%83%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>比较心理学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Cross-cultural_psychology</t>
+  </si>
+  <si>
+    <t>en-Cross-cultural psychology</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Cultural_psychology</t>
+  </si>
+  <si>
+    <t>en-Cultural psychology</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Differential_psychology</t>
+  </si>
+  <si>
+    <t>en-Differential psychology</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E5%B1%95%E5%BF%83%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>发展心理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E5%BF%83%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>演化心理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%A9%97%E5%BF%83%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>实验心理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8%E5%BF%83%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>数学心理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%A0%BC%E5%BF%83%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>人格心理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E9%9D%A2%E5%BF%83%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>正面心理学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Quantitative_psychology</t>
+  </si>
+  <si>
+    <t>en-Quantitative psychology</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%BF%83%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>社会心理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%94%E7%94%A8%E5%BF%83%E7%90%86%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>应用心理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E8%A1%8C%E7%82%BA%E5%88%86%E6%9E%90</t>
+  </si>
+  <si>
+    <t>应用行为分析</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%A8%E5%BA%8A%E5%BF%83%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>临床心理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%8D%80%E5%BF%83%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>社区心理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E8%A1%8C%E7%82%BA</t>
+  </si>
+  <si>
+    <t>消费行为</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AB%AE%E5%95%86%E5%BF%83%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>谘商心理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E5%88%A4%E7%A4%BE%E5%8D%80%E5%BF%83%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>批判社区心理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%BF%83%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>教育心理学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Environmental_psychology</t>
+  </si>
+  <si>
+    <t>en-Environmental psychology</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%9B%A0%E5%B7%A5%E7%A8%8B%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>人因工程学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BA%AD%E5%BF%83%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>法庭心理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E5%BF%83%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>健康心理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9C%AC%E4%B8%BB%E4%B9%89%E5%BF%83%E7%90%86%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>人本主义心理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E8%88%87%E7%B5%84%E7%B9%94%E5%BF%83%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>工业与组织心理学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Ontological_hermeneutics</t>
+  </si>
+  <si>
+    <t>en-Ontological hermeneutics</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%BF%83%E7%90%86%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>法律心理学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Medical_psychology</t>
+  </si>
+  <si>
+    <t>en-Medical psychology</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Military_psychology</t>
+  </si>
+  <si>
+    <t>en-Military psychology</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Music_psychology</t>
+  </si>
+  <si>
+    <t>en-Music psychology</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Occupational_health_psychology</t>
+  </si>
+  <si>
+    <t>en-Occupational health psychology</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>政治心理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E5%BF%83%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>宗教心理学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/School_psychology</t>
+  </si>
+  <si>
+    <t>en-School psychology</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E5%8B%95%E5%BF%83%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>运动心理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A%E5%BF%83%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>交通心理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%AD%B8%E7%A7%91%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>心理学学科列表</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_psychology_organizations</t>
+  </si>
+  <si>
+    <t>en-List of psychology organizations</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>心理学家</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_psychotherapies</t>
+  </si>
+  <si>
+    <t>en-List of psychotherapies</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_important_publications_in_psychology</t>
+  </si>
+  <si>
+    <t>en-List of important publications in psychology</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_psychological_research_methods</t>
+  </si>
+  <si>
+    <t>en-List of psychological research methods</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%AD%B8%E6%B4%BE%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>心理学学派列表</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Timeline_of_psychology</t>
+  </si>
+  <si>
+    <t>en-Timeline of psychology</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Index_of_psychology_articles</t>
+  </si>
+  <si>
+    <t>en-Index of psychology articles</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:Psychology</t>
+  </si>
+  <si>
+    <t>Template talk-Psychology</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5</t>
+  </si>
+  <si>
+    <t>认知</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%80%89%E6%8B%A9</t>
+  </si>
+  <si>
+    <t>选择</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A3%8E%E9%99%A9</t>
+  </si>
+  <si>
+    <t>风险</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E9%A9%AC%E8%B4%BA</t>
+  </si>
+  <si>
+    <t>司马贺</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E8%AF%86%E5%86%B3%E7%AD%96%E6%B3%95</t>
+  </si>
+  <si>
+    <t>共识决策法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E7%AD%96%E8%AB%96</t>
+  </si>
+  <si>
+    <t>决策论</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B3%E7%AD%96</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E5%BF%83%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>神經心理學</t>
-  </si>
-  <si>
-    <t>政策_政策_政治_决策</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_regions_in_the_human_brain</t>
-  </si>
-  <si>
-    <t>en-List of regions in the human brain</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Clinical_neuropsychology</t>
-  </si>
-  <si>
-    <t>en-Clinical neuropsychology</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Cognitive_neuropsychology</t>
-  </si>
-  <si>
-    <t>en-Cognitive neuropsychology</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E7%A5%9E%E7%B6%93%E7%A7%91%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>認知神經科學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%99%BA%E7%97%87</t>
-  </si>
-  <si>
-    <t>失智症</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E8%85%A6</t>
-  </si>
-  <si>
-    <t>人腦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E8%A7%A3%E5%89%96%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>神經解剖學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E7%94%9F%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>神經生理學</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Neuropsychological_assessment</t>
-  </si>
-  <si>
-    <t>en-Neuropsychological assessment</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Neuropsychological_rehabilitation</t>
-  </si>
-  <si>
-    <t>en-Neuropsychological rehabilitation</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Traumatic_brain_injury</t>
-  </si>
-  <si>
-    <t>en-Traumatic brain injury</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%84%91</t>
-  </si>
-  <si>
-    <t>脑</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Arousal</t>
-  </si>
-  <si>
-    <t>en-Arousal</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A8%E6%84%8F</t>
-  </si>
-  <si>
-    <t>注意</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AF%86</t>
-  </si>
-  <si>
-    <t>意识</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E7%AD%96</t>
-  </si>
-  <si>
-    <t>決策</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E6%8E%A7%E5%8A%9F%E8%83%BD</t>
-  </si>
-  <si>
-    <t>管控功能</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E8%AA%9E%E8%A8%80</t>
-  </si>
-  <si>
-    <t>自然語言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E7%BF%92</t>
-  </si>
-  <si>
-    <t>學習</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A8%98%E6%86%B6</t>
-  </si>
-  <si>
-    <t>記憶</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%90%E5%8A%A8%E5%8D%8F%E8%B0%83</t>
-  </si>
-  <si>
-    <t>运动协调</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%A6%BA</t>
-  </si>
-  <si>
-    <t>知覺</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E5%8A%83</t>
-  </si>
-  <si>
-    <t>企劃</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%B1%BA%E5%95%8F%E9%A1%8C</t>
-  </si>
-  <si>
-    <t>解決問題</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%9D%E6%83%B3</t>
-  </si>
-  <si>
-    <t>思想</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Arthur_L._Benton</t>
-  </si>
-  <si>
-    <t>en-Arthur L. Benton</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%BB%B4%C2%B7%E7%8E%BB%E5%A7%86</t>
-  </si>
-  <si>
-    <t>戴维·玻姆</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Antonio_Damasio</t>
-  </si>
-  <si>
-    <t>en-Antonio Damasio</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%B0%BC%E6%96%AF%C2%B7%E8%93%8B%E5%90%89</t>
-  </si>
-  <si>
-    <t>費尼斯·蓋吉</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Norman_Geschwind</t>
-  </si>
-  <si>
-    <t>en-Norman Geschwind</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Elkhonon_Goldberg</t>
-  </si>
-  <si>
-    <t>en-Elkhonon Goldberg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Patricia_Goldman_Rakic</t>
-  </si>
-  <si>
-    <t>en-Patricia Goldman Rakic</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Pasko_Rakic</t>
-  </si>
-  <si>
-    <t>en-Pasko Rakic</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%BA%B3%E5%BE%B7%C2%B7%E8%B5%AB%E5%B8%83</t>
-  </si>
-  <si>
-    <t>唐纳德·赫布</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Kenneth_Heilman</t>
-  </si>
-  <si>
-    <t>en-Kenneth Heilman</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Edith_Kaplan</t>
-  </si>
-  <si>
-    <t>en-Edith Kaplan</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Muriel_Lezak</t>
-  </si>
-  <si>
-    <t>en-Muriel Lezak</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Benjamin_Libet</t>
-  </si>
-  <si>
-    <t>en-Benjamin Libet</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Rodolfo_Llin%C3%A1s</t>
-  </si>
-  <si>
-    <t>en-Rodolfo Llinás</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%C2%B7%E9%B2%81%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>亚历山大·鲁利亚</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Brenda_Milner</t>
-  </si>
-  <si>
-    <t>en-Brenda Milner</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Karl_H._Pribram</t>
-  </si>
-  <si>
-    <t>en-Karl H. Pribram</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%88%A9%E4%BD%9B%C2%B7%E8%96%A9%E5%85%8B%E6%96%AF</t>
-  </si>
-  <si>
-    <t>奧利佛·薩克斯</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Mark_Rosenzweig</t>
-  </si>
-  <si>
-    <t>en-Mark Rosenzweig</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%9D%B0%C2%B7%E6%96%AF%E4%BD%A9%E9%87%8C</t>
-  </si>
-  <si>
-    <t>罗杰·斯佩里</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Hans-Lukas_Teuber</t>
-  </si>
-  <si>
-    <t>en-Hans-Lukas Teuber</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E8%8E%AB%E8%90%8A%E6%A3%AE</t>
-  </si>
-  <si>
-    <t>亨利·莫萊森</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/K.C._(patient)</t>
-  </si>
-  <si>
-    <t>en-K.C. (patient)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Neuropsychological_test</t>
-  </si>
-  <si>
-    <t>en-Neuropsychological test</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Benton_Visual_Retention_Test</t>
-  </si>
-  <si>
-    <t>en-Benton Visual Retention Test</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Continuous_Performance_Task</t>
-  </si>
-  <si>
-    <t>en-Continuous Performance Task</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Halstead-Reitan_Neuropsychological_Battery</t>
-  </si>
-  <si>
-    <t>en-Halstead-Reitan Neuropsychological Battery</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Hayling_and_Brixton_tests</t>
-  </si>
-  <si>
-    <t>en-Hayling and Brixton tests</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Lexical_decision_task</t>
-  </si>
-  <si>
-    <t>en-Lexical decision task</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Luria-Nebraska_Neuropsychological_battery</t>
-  </si>
-  <si>
-    <t>en-Luria-Nebraska Neuropsychological battery</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B0%A1%E7%9F%AD%E6%99%BA%E8%83%BD%E6%B8%AC%E9%A9%97</t>
-  </si>
-  <si>
-    <t>簡短智能測驗</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Rey-Osterrieth_Complex_Figure</t>
-  </si>
-  <si>
-    <t>en-Rey-Osterrieth Complex Figure</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%89%B9%E9%AD%AF%E6%99%AE%E6%95%88%E6%87%89</t>
-  </si>
-  <si>
-    <t>斯特魯普效應</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AD%8F%E6%B0%8F%E6%99%BA%E5%8A%9B%E6%B8%AC%E9%A9%97</t>
-  </si>
-  <si>
-    <t>魏氏智力測驗</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Wechsler_Memory_Scale</t>
-  </si>
-  <si>
-    <t>en-Wechsler Memory Scale</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Wisconsin_Card_Sorting_Task</t>
-  </si>
-  <si>
-    <t>en-Wisconsin Card Sorting Task</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>心理学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%A6%E5%A4%A7%E7%BA%B2</t>
-  </si>
-  <si>
-    <t>心理学大纲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>心理學史</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Subfields_of_psychology</t>
-  </si>
-  <si>
-    <t>en-Subfields of psychology</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Basic_science_(psychology)</t>
-  </si>
-  <si>
-    <t>en-Basic science (psychology)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%95%B0%E5%B8%B8%E5%BF%83%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>異常心理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E4%B8%BA%E9%81%97%E4%BC%A0%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>行为遗传学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%BF%83%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>生物心理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E5%BF%83%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>認知心理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BC%83%E5%BF%83%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>比較心理學</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Cross-cultural_psychology</t>
-  </si>
-  <si>
-    <t>en-Cross-cultural psychology</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Cultural_psychology</t>
-  </si>
-  <si>
-    <t>en-Cultural psychology</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Differential_psychology</t>
-  </si>
-  <si>
-    <t>en-Differential psychology</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E5%B1%95%E5%BF%83%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>發展心理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E5%BF%83%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>演化心理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%A9%97%E5%BF%83%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>實驗心理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8%E5%BF%83%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>數學心理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%A0%BC%E5%BF%83%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>人格心理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E9%9D%A2%E5%BF%83%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>正面心理學</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Quantitative_psychology</t>
-  </si>
-  <si>
-    <t>en-Quantitative psychology</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%BF%83%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>社會心理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%94%E7%94%A8%E5%BF%83%E7%90%86%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>应用心理学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E8%A1%8C%E7%82%BA%E5%88%86%E6%9E%90</t>
-  </si>
-  <si>
-    <t>應用行為分析</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%A8%E5%BA%8A%E5%BF%83%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>臨床心理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%8D%80%E5%BF%83%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>社區心理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E8%A1%8C%E7%82%BA</t>
-  </si>
-  <si>
-    <t>消費行為</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AB%AE%E5%95%86%E5%BF%83%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>諮商心理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E5%88%A4%E7%A4%BE%E5%8D%80%E5%BF%83%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>批判社區心理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%BF%83%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>教育心理學</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Environmental_psychology</t>
-  </si>
-  <si>
-    <t>en-Environmental psychology</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%9B%A0%E5%B7%A5%E7%A8%8B%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>人因工程學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BA%AD%E5%BF%83%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>法庭心理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E5%BF%83%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>健康心理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9C%AC%E4%B8%BB%E4%B9%89%E5%BF%83%E7%90%86%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>人本主义心理学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E8%88%87%E7%B5%84%E7%B9%94%E5%BF%83%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>工業與組織心理學</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Ontological_hermeneutics</t>
-  </si>
-  <si>
-    <t>en-Ontological hermeneutics</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%BF%83%E7%90%86%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>法律心理学</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Medical_psychology</t>
-  </si>
-  <si>
-    <t>en-Medical psychology</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Military_psychology</t>
-  </si>
-  <si>
-    <t>en-Military psychology</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Music_psychology</t>
-  </si>
-  <si>
-    <t>en-Music psychology</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Occupational_health_psychology</t>
-  </si>
-  <si>
-    <t>en-Occupational health psychology</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>政治心理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E5%BF%83%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>宗教心理學</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/School_psychology</t>
-  </si>
-  <si>
-    <t>en-School psychology</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E5%8B%95%E5%BF%83%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>運動心理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A%E5%BF%83%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>交通心理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%AD%B8%E7%A7%91%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>心理學學科列表</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_psychology_organizations</t>
-  </si>
-  <si>
-    <t>en-List of psychology organizations</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>心理學家</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_psychotherapies</t>
-  </si>
-  <si>
-    <t>en-List of psychotherapies</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_important_publications_in_psychology</t>
-  </si>
-  <si>
-    <t>en-List of important publications in psychology</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_psychological_research_methods</t>
-  </si>
-  <si>
-    <t>en-List of psychological research methods</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%AD%B8%E6%B4%BE%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>心理學學派列表</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Timeline_of_psychology</t>
-  </si>
-  <si>
-    <t>en-Timeline of psychology</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Index_of_psychology_articles</t>
-  </si>
-  <si>
-    <t>en-Index of psychology articles</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:Psychology</t>
-  </si>
-  <si>
-    <t>Template talk-Psychology</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>心理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5</t>
-  </si>
-  <si>
-    <t>認知</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%80%89%E6%8B%A9</t>
-  </si>
-  <si>
-    <t>选择</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A3%8E%E9%99%A9</t>
-  </si>
-  <si>
-    <t>风险</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E9%A9%AC%E8%B4%BA</t>
-  </si>
-  <si>
-    <t>司马贺</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E8%AF%86%E5%86%B3%E7%AD%96%E6%B3%95</t>
-  </si>
-  <si>
-    <t>共识决策法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E7%AD%96%E8%AB%96</t>
-  </si>
-  <si>
-    <t>決策論</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1122,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I126"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1640,7 +1640,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="H18" t="s">
         <v>4</v>
@@ -1727,7 +1727,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" t="s">
         <v>4</v>
@@ -1756,7 +1756,7 @@
         <v>44</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" t="s">
         <v>4</v>
@@ -1901,7 +1901,7 @@
         <v>54</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" t="s">
         <v>4</v>
@@ -1930,7 +1930,7 @@
         <v>56</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" t="s">
         <v>4</v>
@@ -1959,7 +1959,7 @@
         <v>58</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" t="s">
         <v>4</v>
@@ -1988,7 +1988,7 @@
         <v>60</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" t="s">
         <v>4</v>
@@ -2017,7 +2017,7 @@
         <v>62</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" t="s">
         <v>4</v>
@@ -2133,7 +2133,7 @@
         <v>70</v>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35" t="s">
         <v>4</v>
@@ -2162,7 +2162,7 @@
         <v>72</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36" t="s">
         <v>4</v>
@@ -2307,7 +2307,7 @@
         <v>82</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41" t="s">
         <v>4</v>
@@ -2336,7 +2336,7 @@
         <v>84</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" t="s">
         <v>4</v>
@@ -2394,7 +2394,7 @@
         <v>88</v>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" t="s">
         <v>4</v>
@@ -2423,7 +2423,7 @@
         <v>90</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" t="s">
         <v>4</v>
@@ -2452,7 +2452,7 @@
         <v>92</v>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46" t="s">
         <v>4</v>
@@ -2481,7 +2481,7 @@
         <v>94</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" t="s">
         <v>4</v>
@@ -2510,7 +2510,7 @@
         <v>96</v>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" t="s">
         <v>4</v>
@@ -3641,7 +3641,7 @@
         <v>174</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H87" t="s">
         <v>4</v>
@@ -3670,7 +3670,7 @@
         <v>176</v>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H88" t="s">
         <v>4</v>
@@ -3873,7 +3873,7 @@
         <v>190</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H95" t="s">
         <v>4</v>
@@ -3902,7 +3902,7 @@
         <v>192</v>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96" t="s">
         <v>4</v>
@@ -4540,7 +4540,7 @@
         <v>236</v>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H118" t="s">
         <v>4</v>
@@ -4566,10 +4566,10 @@
         <v>237</v>
       </c>
       <c r="F119" t="s">
-        <v>238</v>
+        <v>126</v>
       </c>
       <c r="G119" t="n">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="H119" t="s">
         <v>4</v>
@@ -4592,13 +4592,13 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>238</v>
+      </c>
+      <c r="F120" t="s">
         <v>239</v>
       </c>
-      <c r="F120" t="s">
-        <v>240</v>
-      </c>
       <c r="G120" t="n">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="H120" t="s">
         <v>4</v>
@@ -4621,13 +4621,13 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>240</v>
+      </c>
+      <c r="F121" t="s">
         <v>241</v>
       </c>
-      <c r="F121" t="s">
-        <v>242</v>
-      </c>
       <c r="G121" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H121" t="s">
         <v>4</v>
@@ -4650,13 +4650,13 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>242</v>
+      </c>
+      <c r="F122" t="s">
         <v>243</v>
       </c>
-      <c r="F122" t="s">
-        <v>244</v>
-      </c>
       <c r="G122" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H122" t="s">
         <v>4</v>
@@ -4679,10 +4679,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>244</v>
+      </c>
+      <c r="F123" t="s">
         <v>245</v>
-      </c>
-      <c r="F123" t="s">
-        <v>246</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4708,10 +4708,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>246</v>
+      </c>
+      <c r="F124" t="s">
         <v>247</v>
-      </c>
-      <c r="F124" t="s">
-        <v>248</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4737,10 +4737,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>248</v>
+      </c>
+      <c r="F125" t="s">
         <v>249</v>
-      </c>
-      <c r="F125" t="s">
-        <v>250</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4766,18 +4766,47 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>250</v>
+      </c>
+      <c r="F126" t="s">
         <v>251</v>
       </c>
-      <c r="F126" t="s">
+      <c r="G126" t="n">
+        <v>2</v>
+      </c>
+      <c r="H126" t="s">
+        <v>4</v>
+      </c>
+      <c r="I126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1</v>
+      </c>
+      <c r="D127" t="n">
+        <v>126</v>
+      </c>
+      <c r="E127" t="s">
+        <v>250</v>
+      </c>
+      <c r="F127" t="s">
         <v>252</v>
       </c>
-      <c r="G126" t="n">
-        <v>1</v>
-      </c>
-      <c r="H126" t="s">
-        <v>4</v>
-      </c>
-      <c r="I126" t="n">
+      <c r="G127" t="n">
+        <v>1</v>
+      </c>
+      <c r="H127" t="s">
+        <v>4</v>
+      </c>
+      <c r="I127" t="n">
         <v>3</v>
       </c>
     </row>
